--- a/TopicSpecific/SQL.xlsx
+++ b/TopicSpecific/SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LeetCode\TopicSpecific\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00826ADE-C95B-47DB-8800-CC5C75BFAC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAA6AE-BC76-42CE-8492-1A2CE0311BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="1392" windowWidth="19584" windowHeight="10668" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="1" r:id="rId1"/>
@@ -7938,8 +7938,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8384,7 +8384,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>30</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>36</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>40</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>41</v>
       </c>
@@ -8587,61 +8587,61 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>43</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>2205</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="5">
         <v>0.48199999999999998</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>46</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>1495</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="5">
         <v>0.503</v>
       </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="7" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8674,32 +8674,32 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>49</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>1809</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <v>0.6</v>
       </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="7" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8761,32 +8761,32 @@
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>55</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>1294</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="7" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8848,380 +8848,380 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>59</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>1729</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="5">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="7" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>60</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>2072</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="5">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="F33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>61</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>1280</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="5">
         <v>0.746</v>
       </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>62</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>577</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="5">
         <v>0.747</v>
       </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>63</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>1148</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="5">
         <v>0.76700000000000002</v>
       </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>64</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>1327</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <v>0.77200000000000002</v>
       </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="F37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>65</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>1435</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="5">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>66</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>2082</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="5">
         <v>0.80700000000000005</v>
       </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>68</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>1068</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="5">
         <v>0.81100000000000005</v>
       </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="F40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>69</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>1069</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="5">
         <v>0.82599999999999996</v>
       </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="F41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>70</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>1565</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="5">
         <v>0.83199999999999996</v>
       </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>71</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>1173</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="5">
         <v>0.83299999999999996</v>
       </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="7" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>72</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>1407</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="5">
         <v>0.83399999999999996</v>
       </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="7" t="s">
         <v>460</v>
       </c>
     </row>

--- a/TopicSpecific/SQL.xlsx
+++ b/TopicSpecific/SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LeetCode\TopicSpecific\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAA6AE-BC76-42CE-8492-1A2CE0311BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB07BD1-F6D4-452E-8D35-10040D9D0018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7938,8 +7938,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9225,235 +9225,235 @@
         <v>460</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>73</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>1421</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="5">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="7" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>74</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>1777</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="5">
         <v>0.85799999999999998</v>
       </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="F46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="7" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>77</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>1623</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="5">
         <v>0.88500000000000001</v>
       </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="7" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>78</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>1581</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="5">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>79</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>1571</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="5">
         <v>0.89800000000000002</v>
       </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="F49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>80</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>1821</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="5">
         <v>0.89800000000000002</v>
       </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="F50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>83</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>1683</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="5">
         <v>0.90900000000000003</v>
       </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="F51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>84</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>1378</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="5">
         <v>0.91100000000000003</v>
       </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="F52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="7" t="s">
         <v>461</v>
       </c>
     </row>
@@ -9515,90 +9515,90 @@
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>103</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>608</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="5">
         <v>0.71799999999999997</v>
       </c>
-      <c r="F55" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55">
+      <c r="F55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="4">
         <v>15.3573</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="7" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>104</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>1321</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="5">
         <v>0.72599999999999998</v>
       </c>
-      <c r="F56" t="s">
-        <v>200</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" s="4">
         <v>13.170500000000001</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="7" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>105</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>1285</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="5">
         <v>0.88300000000000001</v>
       </c>
-      <c r="F57" t="s">
-        <v>200</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" s="4">
         <v>12.655200000000001</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="7" t="s">
         <v>452</v>
       </c>
     </row>
@@ -9631,61 +9631,61 @@
         <v>452</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>107</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>1212</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="5">
         <v>0.57299999999999995</v>
       </c>
-      <c r="F59" t="s">
-        <v>200</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" s="4">
         <v>12.256399999999999</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="7" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>110</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>534</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="5">
         <v>0.82</v>
       </c>
-      <c r="F60" t="s">
-        <v>200</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="4">
         <v>10.8024</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="7" t="s">
         <v>453</v>
       </c>
     </row>
